--- a/Recruiter_Sheet.xlsx
+++ b/Recruiter_Sheet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,10 +501,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1916717</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1916717</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -560,6 +558,179 @@
       <c r="M2" t="inlineStr">
         <is>
           <t>Sowdepalli</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>234234234324234</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fake Position</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gothom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Met</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>12000000K</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>F1 OPT</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>I don't have notes</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>87997897</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Another Fake One As Well</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Faker</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Clark</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Metropolis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Manor</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>44444444K</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>F1 OPT</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Fake</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Kent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>242312645</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>This is a Fake One</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Metropolis</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Metropolis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mak</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>444444K</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>US Citizen</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Final one to display maybe</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Smith</t>
         </is>
       </c>
     </row>
